--- a/DATA/3.Wypadki_wg_przyczyn_WOJ.xlsx
+++ b/DATA/3.Wypadki_wg_przyczyn_WOJ.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_9248486D44C93C52631DEA188F3E8C1851038387" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A78D6E14-EAFB-4EE3-878A-58D8E5C526FB}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\OneDrive\Dokumenty\AnalizaDanych\DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A25F3BA-5CF8-4472-8B3F-DD3FCE704B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-330" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -26,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="28">
-  <si>
-    <t>Jednostka terytorialna</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="29">
   <si>
     <t>Rok</t>
   </si>
@@ -56,9 +58,6 @@
   </si>
   <si>
     <t>Wina pieszych - ogółem</t>
-  </si>
-  <si>
-    <t>wina pieszych - nieostrożne wejście na jezdnię</t>
   </si>
   <si>
     <t>POLSKA</t>
@@ -111,12 +110,21 @@
   <si>
     <t>ZACHODNIOPOMORSKIE</t>
   </si>
+  <si>
+    <t>Jednostka</t>
+  </si>
+  <si>
+    <t>Wina pieszych - nieostrożne wejście na jezdnię</t>
+  </si>
+  <si>
+    <t>Wina pieszych - pozostałe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +211,10 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -245,29 +256,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF4AF7DF-E3C5-4D42-966F-1B8FADDD8838}" name="Tabela1" displayName="Tabela1" ref="A1:K120" totalsRowShown="0">
-  <autoFilter ref="A1:K120" xr:uid="{AF4AF7DF-E3C5-4D42-966F-1B8FADDD8838}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F931E6CA-7BC0-4204-A56E-D5101E61B320}" name="Jednostka terytorialna"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF4AF7DF-E3C5-4D42-966F-1B8FADDD8838}" name="Tabela1" displayName="Tabela1" ref="A1:L120" totalsRowShown="0">
+  <autoFilter ref="A1:L120" xr:uid="{AF4AF7DF-E3C5-4D42-966F-1B8FADDD8838}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{F931E6CA-7BC0-4204-A56E-D5101E61B320}" name="Jednostka"/>
     <tableColumn id="2" xr3:uid="{566CFD72-3775-45F9-A648-40AA15C00AB9}" name="Rok"/>
-    <tableColumn id="3" xr3:uid="{946830C7-8424-4A8D-9047-C1E9087530BA}" name="Wina kierujących pojazdami ogółem" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{F92E356F-7E44-4759-8A45-8E7A636BC6E7}" name="Wina kierujących pojazdami - niedostosowanie prędkości do warunków ruchu" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{16CDF51B-E920-4545-A734-9965171033EE}" name="Wina kierujących pojazdami - nieprzestrzeganie pierwszeństwa przejazdu" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{83220930-617D-426C-8C2C-CE7BD6B4A5BF}" name="Wina kierujących pojazdami - nieprawidłowe wyprzedzanie" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{992AB53A-D61E-49C1-A321-6C2516C6D642}" name="Wina kierujących pojazdami - nieprawidłowe zachowanie wobec pieszych" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{F5AEE3EA-1C5A-4EA1-8FD6-1BC3F437A817}" name="Wina kierujących pojazdami - niezachowanie bezpiecznej odległości między pojazdami" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{F37FB52A-8DBD-44D1-AAE9-F89CB71549F0}" name="Wina kierujących pojazdami - pozostałe" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{1B680733-C603-4C47-BAFF-6648A6290240}" name="Wina pieszych - ogółem" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{65DD9ADC-3B48-4707-AA31-17230B7374D5}" name="wina pieszych - nieostrożne wejście na jezdnię" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{946830C7-8424-4A8D-9047-C1E9087530BA}" name="Wina kierujących pojazdami ogółem" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F92E356F-7E44-4759-8A45-8E7A636BC6E7}" name="Wina kierujących pojazdami - niedostosowanie prędkości do warunków ruchu" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{16CDF51B-E920-4545-A734-9965171033EE}" name="Wina kierujących pojazdami - nieprzestrzeganie pierwszeństwa przejazdu" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{83220930-617D-426C-8C2C-CE7BD6B4A5BF}" name="Wina kierujących pojazdami - nieprawidłowe wyprzedzanie" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{992AB53A-D61E-49C1-A321-6C2516C6D642}" name="Wina kierujących pojazdami - nieprawidłowe zachowanie wobec pieszych" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F5AEE3EA-1C5A-4EA1-8FD6-1BC3F437A817}" name="Wina kierujących pojazdami - niezachowanie bezpiecznej odległości między pojazdami" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{F37FB52A-8DBD-44D1-AAE9-F89CB71549F0}" name="Wina kierujących pojazdami - pozostałe" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{1B680733-C603-4C47-BAFF-6648A6290240}" name="Wina pieszych - ogółem" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{65DD9ADC-3B48-4707-AA31-17230B7374D5}" name="Wina pieszych - nieostrożne wejście na jezdnię" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{25F2F24B-DEBB-4CEA-B493-DD377E9CE8A4}" name="Wina pieszych - pozostałe" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +317,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -411,7 +423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:E86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -577,49 +589,53 @@
     <col min="6" max="6" width="54.7109375" customWidth="1"/>
     <col min="7" max="7" width="67.42578125" customWidth="1"/>
     <col min="8" max="8" width="76.140625" customWidth="1"/>
-    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="46.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B2">
         <v>2014</v>
@@ -651,10 +667,13 @@
       <c r="K2" s="4">
         <v>2061</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="4">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2014</v>
@@ -686,10 +705,13 @@
       <c r="K3" s="4">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2014</v>
@@ -721,10 +743,13 @@
       <c r="K4" s="4">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2014</v>
@@ -756,10 +781,13 @@
       <c r="K5" s="4">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2014</v>
@@ -791,10 +819,13 @@
       <c r="K6" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2014</v>
@@ -826,10 +857,13 @@
       <c r="K7" s="4">
         <v>228</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2014</v>
@@ -861,10 +895,13 @@
       <c r="K8" s="4">
         <v>262</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2014</v>
@@ -896,10 +933,13 @@
       <c r="K9" s="4">
         <v>271</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2014</v>
@@ -931,10 +971,13 @@
       <c r="K10" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2014</v>
@@ -966,10 +1009,13 @@
       <c r="K11" s="4">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2014</v>
@@ -1001,10 +1047,13 @@
       <c r="K12" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2014</v>
@@ -1036,10 +1085,13 @@
       <c r="K13" s="4">
         <v>149</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>2014</v>
@@ -1071,10 +1123,13 @@
       <c r="K14" s="4">
         <v>312</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -1106,10 +1161,13 @@
       <c r="K15" s="4">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>2014</v>
@@ -1141,10 +1199,13 @@
       <c r="K16" s="4">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>2014</v>
@@ -1176,10 +1237,13 @@
       <c r="K17" s="4">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>2014</v>
@@ -1211,10 +1275,13 @@
       <c r="K18" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -1246,10 +1313,13 @@
       <c r="K19" s="4">
         <v>1733</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="4">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -1281,10 +1351,13 @@
       <c r="K20" s="4">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1316,10 +1389,13 @@
       <c r="K21" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>2015</v>
@@ -1351,10 +1427,13 @@
       <c r="K22" s="4">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2015</v>
@@ -1386,10 +1465,13 @@
       <c r="K23" s="4">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>2015</v>
@@ -1421,10 +1503,13 @@
       <c r="K24" s="4">
         <v>189</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>2015</v>
@@ -1456,10 +1541,13 @@
       <c r="K25" s="4">
         <v>235</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>2015</v>
@@ -1491,10 +1579,13 @@
       <c r="K26" s="4">
         <v>203</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>2015</v>
@@ -1526,10 +1617,13 @@
       <c r="K27" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>2015</v>
@@ -1561,10 +1655,13 @@
       <c r="K28" s="4">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>2015</v>
@@ -1596,10 +1693,13 @@
       <c r="K29" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>2015</v>
@@ -1631,10 +1731,13 @@
       <c r="K30" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>2015</v>
@@ -1666,10 +1769,13 @@
       <c r="K31" s="4">
         <v>259</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>2015</v>
@@ -1701,10 +1807,13 @@
       <c r="K32" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>2015</v>
@@ -1736,10 +1845,13 @@
       <c r="K33" s="4">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>2015</v>
@@ -1771,10 +1883,13 @@
       <c r="K34" s="4">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>2015</v>
@@ -1806,10 +1921,13 @@
       <c r="K35" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>2016</v>
@@ -1841,10 +1959,13 @@
       <c r="K36" s="4">
         <v>1548</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="4">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>2016</v>
@@ -1876,10 +1997,13 @@
       <c r="K37" s="4">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>2016</v>
@@ -1911,10 +2035,13 @@
       <c r="K38" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>2016</v>
@@ -1946,10 +2073,13 @@
       <c r="K39" s="4">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>2016</v>
@@ -1981,10 +2111,13 @@
       <c r="K40" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>2016</v>
@@ -2016,10 +2149,13 @@
       <c r="K41" s="4">
         <v>176</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>2016</v>
@@ -2051,10 +2187,13 @@
       <c r="K42" s="4">
         <v>190</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>2016</v>
@@ -2086,10 +2225,13 @@
       <c r="K43" s="4">
         <v>189</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>2016</v>
@@ -2121,10 +2263,13 @@
       <c r="K44" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>2016</v>
@@ -2156,10 +2301,13 @@
       <c r="K45" s="4">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>2016</v>
@@ -2191,10 +2339,13 @@
       <c r="K46" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>2016</v>
@@ -2226,10 +2377,13 @@
       <c r="K47" s="4">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48">
         <v>2016</v>
@@ -2261,10 +2415,13 @@
       <c r="K48" s="4">
         <v>217</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>2016</v>
@@ -2296,10 +2453,13 @@
       <c r="K49" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -2331,10 +2491,13 @@
       <c r="K50" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>2016</v>
@@ -2366,10 +2529,13 @@
       <c r="K51" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>2016</v>
@@ -2401,10 +2567,13 @@
       <c r="K52" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>2017</v>
@@ -2436,10 +2605,13 @@
       <c r="K53" s="4">
         <v>1452</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="4">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <v>2017</v>
@@ -2471,10 +2643,13 @@
       <c r="K54" s="4">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>2017</v>
@@ -2506,10 +2681,13 @@
       <c r="K55" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>2017</v>
@@ -2541,10 +2719,13 @@
       <c r="K56" s="4">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>2017</v>
@@ -2576,10 +2757,13 @@
       <c r="K57" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58">
         <v>2017</v>
@@ -2611,10 +2795,13 @@
       <c r="K58" s="4">
         <v>141</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B59">
         <v>2017</v>
@@ -2646,10 +2833,13 @@
       <c r="K59" s="4">
         <v>201</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B60">
         <v>2017</v>
@@ -2681,10 +2871,13 @@
       <c r="K60" s="4">
         <v>203</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -2716,10 +2909,13 @@
       <c r="K61" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B62">
         <v>2017</v>
@@ -2751,10 +2947,13 @@
       <c r="K62" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B63">
         <v>2017</v>
@@ -2786,10 +2985,13 @@
       <c r="K63" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B64">
         <v>2017</v>
@@ -2821,10 +3023,13 @@
       <c r="K64" s="4">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B65">
         <v>2017</v>
@@ -2856,10 +3061,13 @@
       <c r="K65" s="4">
         <v>199</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>2017</v>
@@ -2891,10 +3099,13 @@
       <c r="K66" s="4">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>2017</v>
@@ -2926,10 +3137,13 @@
       <c r="K67" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>2017</v>
@@ -2961,10 +3175,13 @@
       <c r="K68" s="4">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B69">
         <v>2017</v>
@@ -2996,10 +3213,13 @@
       <c r="K69" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70">
         <v>2018</v>
@@ -3031,10 +3251,13 @@
       <c r="K70" s="4">
         <v>1270</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="4">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>2018</v>
@@ -3066,10 +3289,13 @@
       <c r="K71" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B72">
         <v>2018</v>
@@ -3101,10 +3327,13 @@
       <c r="K72" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B73">
         <v>2018</v>
@@ -3136,10 +3365,13 @@
       <c r="K73" s="4">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <v>2018</v>
@@ -3171,10 +3403,13 @@
       <c r="K74" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B75">
         <v>2018</v>
@@ -3206,10 +3441,13 @@
       <c r="K75" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B76">
         <v>2018</v>
@@ -3241,10 +3479,13 @@
       <c r="K76" s="4">
         <v>160</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B77">
         <v>2018</v>
@@ -3276,10 +3517,13 @@
       <c r="K77" s="4">
         <v>161</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78">
         <v>2018</v>
@@ -3311,10 +3555,13 @@
       <c r="K78" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B79">
         <v>2018</v>
@@ -3346,10 +3593,13 @@
       <c r="K79" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B80">
         <v>2018</v>
@@ -3381,10 +3631,13 @@
       <c r="K80" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B81">
         <v>2018</v>
@@ -3416,10 +3669,13 @@
       <c r="K81" s="4">
         <v>96</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B82">
         <v>2018</v>
@@ -3451,10 +3707,13 @@
       <c r="K82" s="4">
         <v>183</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B83">
         <v>2018</v>
@@ -3486,10 +3745,13 @@
       <c r="K83" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B84">
         <v>2018</v>
@@ -3521,10 +3783,13 @@
       <c r="K84" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B85">
         <v>2018</v>
@@ -3556,10 +3821,13 @@
       <c r="K85" s="4">
         <v>96</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <v>2018</v>
@@ -3591,10 +3859,13 @@
       <c r="K86" s="4">
         <v>56</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B87">
         <v>2019</v>
@@ -3626,10 +3897,13 @@
       <c r="K87" s="4">
         <v>1142</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" s="4">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B88">
         <v>2019</v>
@@ -3661,10 +3935,13 @@
       <c r="K88" s="4">
         <v>83</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B89">
         <v>2019</v>
@@ -3696,10 +3973,13 @@
       <c r="K89" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B90">
         <v>2019</v>
@@ -3731,10 +4011,13 @@
       <c r="K90" s="4">
         <v>56</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B91">
         <v>2019</v>
@@ -3766,10 +4049,13 @@
       <c r="K91" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>2019</v>
@@ -3801,10 +4087,13 @@
       <c r="K92" s="4">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B93">
         <v>2019</v>
@@ -3836,10 +4125,13 @@
       <c r="K93" s="4">
         <v>132</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B94">
         <v>2019</v>
@@ -3871,10 +4163,13 @@
       <c r="K94" s="4">
         <v>156</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B95">
         <v>2019</v>
@@ -3906,10 +4201,13 @@
       <c r="K95" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B96">
         <v>2019</v>
@@ -3941,10 +4239,13 @@
       <c r="K96" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B97">
         <v>2019</v>
@@ -3976,10 +4277,13 @@
       <c r="K97" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B98">
         <v>2019</v>
@@ -4011,10 +4315,13 @@
       <c r="K98" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -4046,10 +4353,13 @@
       <c r="K99" s="4">
         <v>145</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100">
         <v>2019</v>
@@ -4081,10 +4391,13 @@
       <c r="K100" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B101">
         <v>2019</v>
@@ -4116,10 +4429,13 @@
       <c r="K101" s="4">
         <v>42</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B102">
         <v>2019</v>
@@ -4151,10 +4467,13 @@
       <c r="K102" s="4">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B103">
         <v>2019</v>
@@ -4186,10 +4505,13 @@
       <c r="K103" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B104">
         <v>2020</v>
@@ -4221,10 +4543,13 @@
       <c r="K104" s="4">
         <v>830</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104" s="4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B105">
         <v>2020</v>
@@ -4256,10 +4581,13 @@
       <c r="K105" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106">
         <v>2020</v>
@@ -4291,10 +4619,13 @@
       <c r="K106" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B107">
         <v>2020</v>
@@ -4326,10 +4657,13 @@
       <c r="K107" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B108">
         <v>2020</v>
@@ -4361,10 +4695,13 @@
       <c r="K108" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B109">
         <v>2020</v>
@@ -4396,10 +4733,13 @@
       <c r="K109" s="4">
         <v>89</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B110">
         <v>2020</v>
@@ -4431,10 +4771,13 @@
       <c r="K110" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111">
         <v>2020</v>
@@ -4466,10 +4809,13 @@
       <c r="K111" s="4">
         <v>102</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B112">
         <v>2020</v>
@@ -4501,10 +4847,13 @@
       <c r="K112" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B113">
         <v>2020</v>
@@ -4536,10 +4885,13 @@
       <c r="K113" s="4">
         <v>59</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B114">
         <v>2020</v>
@@ -4571,10 +4923,13 @@
       <c r="K114" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B115">
         <v>2020</v>
@@ -4606,10 +4961,13 @@
       <c r="K115" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B116">
         <v>2020</v>
@@ -4641,10 +4999,13 @@
       <c r="K116" s="4">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B117">
         <v>2020</v>
@@ -4676,10 +5037,13 @@
       <c r="K117" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B118">
         <v>2020</v>
@@ -4711,10 +5075,13 @@
       <c r="K118" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B119">
         <v>2020</v>
@@ -4746,10 +5113,13 @@
       <c r="K119" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B120">
         <v>2020</v>
@@ -4780,6 +5150,9 @@
       </c>
       <c r="K120" s="4">
         <v>27</v>
+      </c>
+      <c r="L120" s="4">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/3.Wypadki_wg_przyczyn_WOJ.xlsx
+++ b/DATA/3.Wypadki_wg_przyczyn_WOJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\OneDrive\Dokumenty\AnalizaDanych\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A25F3BA-5CF8-4472-8B3F-DD3FCE704B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D957FDE-6FE9-4969-8F5E-645FDA267B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="4785" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -34,27 +34,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="29">
   <si>
     <t>Rok</t>
-  </si>
-  <si>
-    <t>Wina kierujących pojazdami ogółem</t>
-  </si>
-  <si>
-    <t>Wina kierujących pojazdami - niedostosowanie prędkości do warunków ruchu</t>
-  </si>
-  <si>
-    <t>Wina kierujących pojazdami - nieprzestrzeganie pierwszeństwa przejazdu</t>
-  </si>
-  <si>
-    <t>Wina kierujących pojazdami - nieprawidłowe wyprzedzanie</t>
-  </si>
-  <si>
-    <t>Wina kierujących pojazdami - nieprawidłowe zachowanie wobec pieszych</t>
-  </si>
-  <si>
-    <t>Wina kierujących pojazdami - niezachowanie bezpiecznej odległości między pojazdami</t>
-  </si>
-  <si>
-    <t>Wina kierujących pojazdami - pozostałe</t>
   </si>
   <si>
     <t>Wina pieszych - ogółem</t>
@@ -118,6 +97,27 @@
   </si>
   <si>
     <t>Wina pieszych - pozostałe</t>
+  </si>
+  <si>
+    <t>Wina kierowców ogółem</t>
+  </si>
+  <si>
+    <t>Wina kierowców - niedostosowanie prędkości</t>
+  </si>
+  <si>
+    <t>Wina kierowców - nieprzestrzeganie pierwszeństwa</t>
+  </si>
+  <si>
+    <t>Wina kierowców - nieprawidłowe wyprzedzanie</t>
+  </si>
+  <si>
+    <t>Wina kierowców - nieprawidłowe zachowanie wobec pieszych</t>
+  </si>
+  <si>
+    <t>Wina kierowców - niezachowanie bezpiecznej odległości</t>
+  </si>
+  <si>
+    <t>Wina kierowców - pozostałe</t>
   </si>
 </sst>
 </file>
@@ -261,13 +261,13 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{F931E6CA-7BC0-4204-A56E-D5101E61B320}" name="Jednostka"/>
     <tableColumn id="2" xr3:uid="{566CFD72-3775-45F9-A648-40AA15C00AB9}" name="Rok"/>
-    <tableColumn id="3" xr3:uid="{946830C7-8424-4A8D-9047-C1E9087530BA}" name="Wina kierujących pojazdami ogółem" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F92E356F-7E44-4759-8A45-8E7A636BC6E7}" name="Wina kierujących pojazdami - niedostosowanie prędkości do warunków ruchu" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{16CDF51B-E920-4545-A734-9965171033EE}" name="Wina kierujących pojazdami - nieprzestrzeganie pierwszeństwa przejazdu" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{83220930-617D-426C-8C2C-CE7BD6B4A5BF}" name="Wina kierujących pojazdami - nieprawidłowe wyprzedzanie" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{992AB53A-D61E-49C1-A321-6C2516C6D642}" name="Wina kierujących pojazdami - nieprawidłowe zachowanie wobec pieszych" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{F5AEE3EA-1C5A-4EA1-8FD6-1BC3F437A817}" name="Wina kierujących pojazdami - niezachowanie bezpiecznej odległości między pojazdami" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{F37FB52A-8DBD-44D1-AAE9-F89CB71549F0}" name="Wina kierujących pojazdami - pozostałe" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{946830C7-8424-4A8D-9047-C1E9087530BA}" name="Wina kierowców ogółem" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F92E356F-7E44-4759-8A45-8E7A636BC6E7}" name="Wina kierowców - niedostosowanie prędkości" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{16CDF51B-E920-4545-A734-9965171033EE}" name="Wina kierowców - nieprzestrzeganie pierwszeństwa" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{83220930-617D-426C-8C2C-CE7BD6B4A5BF}" name="Wina kierowców - nieprawidłowe wyprzedzanie" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{992AB53A-D61E-49C1-A321-6C2516C6D642}" name="Wina kierowców - nieprawidłowe zachowanie wobec pieszych" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F5AEE3EA-1C5A-4EA1-8FD6-1BC3F437A817}" name="Wina kierowców - niezachowanie bezpiecznej odległości" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{F37FB52A-8DBD-44D1-AAE9-F89CB71549F0}" name="Wina kierowców - pozostałe" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{1B680733-C603-4C47-BAFF-6648A6290240}" name="Wina pieszych - ogółem" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{65DD9ADC-3B48-4707-AA31-17230B7374D5}" name="Wina pieszych - nieostrożne wejście na jezdnię" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{25F2F24B-DEBB-4CEA-B493-DD377E9CE8A4}" name="Wina pieszych - pozostałe" dataDxfId="0"/>
@@ -576,66 +576,66 @@
   <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="68" customWidth="1"/>
-    <col min="5" max="5" width="64.42578125" customWidth="1"/>
-    <col min="6" max="6" width="54.7109375" customWidth="1"/>
-    <col min="7" max="7" width="67.42578125" customWidth="1"/>
-    <col min="8" max="8" width="76.140625" customWidth="1"/>
-    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="46.28515625" customWidth="1"/>
+    <col min="11" max="11" width="46" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2014</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2014</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2014</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2014</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2014</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2014</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2014</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2014</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>2014</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2014</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2014</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>2014</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2014</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2014</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2014</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>2014</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>2015</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>2015</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>2015</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>2015</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>2015</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>2015</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>2015</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>2015</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>2015</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>2015</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <v>2015</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <v>2015</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>2015</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>2015</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B36">
         <v>2016</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <v>2016</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>2016</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>2016</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>2016</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>2016</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B42">
         <v>2016</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>2016</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B44">
         <v>2016</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>2016</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>2016</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>2016</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B48">
         <v>2016</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B49">
         <v>2016</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B51">
         <v>2016</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <v>2016</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <v>2017</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B54">
         <v>2017</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>2017</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B56">
         <v>2017</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>2017</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>2017</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>2017</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>2017</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <v>2017</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B63">
         <v>2017</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B64">
         <v>2017</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>2017</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B66">
         <v>2017</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B67">
         <v>2017</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B68">
         <v>2017</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B69">
         <v>2017</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B70">
         <v>2018</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B71">
         <v>2018</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>2018</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <v>2018</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B74">
         <v>2018</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B75">
         <v>2018</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B76">
         <v>2018</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B77">
         <v>2018</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>2018</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B79">
         <v>2018</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B80">
         <v>2018</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>2018</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>2018</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B83">
         <v>2018</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B84">
         <v>2018</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B85">
         <v>2018</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B86">
         <v>2018</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B87">
         <v>2019</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B88">
         <v>2019</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B89">
         <v>2019</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B90">
         <v>2019</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B91">
         <v>2019</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B92">
         <v>2019</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B93">
         <v>2019</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B94">
         <v>2019</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B95">
         <v>2019</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B96">
         <v>2019</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B97">
         <v>2019</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B98">
         <v>2019</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B99">
         <v>2019</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B100">
         <v>2019</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B101">
         <v>2019</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B102">
         <v>2019</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B103">
         <v>2019</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B104">
         <v>2020</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B105">
         <v>2020</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B106">
         <v>2020</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B107">
         <v>2020</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B108">
         <v>2020</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B109">
         <v>2020</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B110">
         <v>2020</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B111">
         <v>2020</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B112">
         <v>2020</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B113">
         <v>2020</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B114">
         <v>2020</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B115">
         <v>2020</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B116">
         <v>2020</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B117">
         <v>2020</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B118">
         <v>2020</v>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B119">
         <v>2020</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B120">
         <v>2020</v>
